--- a/data/pca/factorExposure/factorExposure_2012-04-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-19.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01683563868382003</v>
+        <v>-0.01694547421955079</v>
       </c>
       <c r="C2">
-        <v>0.03561469283759972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02943318711939853</v>
+      </c>
+      <c r="D2">
+        <v>-0.003054090020095654</v>
+      </c>
+      <c r="E2">
+        <v>-0.01034935959417372</v>
+      </c>
+      <c r="F2">
+        <v>-0.01094995431464474</v>
+      </c>
+      <c r="G2">
+        <v>0.002095463170472887</v>
+      </c>
+      <c r="H2">
+        <v>0.05494383308606521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07545671334967531</v>
+        <v>-0.08718422032634077</v>
       </c>
       <c r="C4">
-        <v>0.05495027955752913</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.0379046623135558</v>
+      </c>
+      <c r="D4">
+        <v>-0.06796973151362731</v>
+      </c>
+      <c r="E4">
+        <v>-0.009959892469177669</v>
+      </c>
+      <c r="F4">
+        <v>-0.03029834642728591</v>
+      </c>
+      <c r="G4">
+        <v>0.008817280291545094</v>
+      </c>
+      <c r="H4">
+        <v>-0.04985178575816051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1066336428422691</v>
+        <v>-0.1186325179486482</v>
       </c>
       <c r="C6">
-        <v>0.0549326166046665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03231768994626776</v>
+      </c>
+      <c r="D6">
+        <v>-0.01179192839949983</v>
+      </c>
+      <c r="E6">
+        <v>0.01442078739046215</v>
+      </c>
+      <c r="F6">
+        <v>-0.06011102940057641</v>
+      </c>
+      <c r="G6">
+        <v>0.02090298943769051</v>
+      </c>
+      <c r="H6">
+        <v>0.08325689493704029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04997803805157196</v>
+        <v>-0.06368632745542131</v>
       </c>
       <c r="C7">
-        <v>0.02795510190447808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01922734300513007</v>
+      </c>
+      <c r="D7">
+        <v>-0.04541027047787765</v>
+      </c>
+      <c r="E7">
+        <v>-0.02790271921603294</v>
+      </c>
+      <c r="F7">
+        <v>-0.04239445257925233</v>
+      </c>
+      <c r="G7">
+        <v>-0.03938518165326071</v>
+      </c>
+      <c r="H7">
+        <v>-0.02809790952396699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03599281404141664</v>
+        <v>-0.04030672266479395</v>
       </c>
       <c r="C8">
-        <v>0.01120442143366411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.00728158789568618</v>
+      </c>
+      <c r="D8">
+        <v>-0.02896218330431738</v>
+      </c>
+      <c r="E8">
+        <v>-0.02570791519465555</v>
+      </c>
+      <c r="F8">
+        <v>-0.0454031161565312</v>
+      </c>
+      <c r="G8">
+        <v>0.04209597877662227</v>
+      </c>
+      <c r="H8">
+        <v>-0.01059290470123568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06829936946252549</v>
+        <v>-0.07823672050136439</v>
       </c>
       <c r="C9">
-        <v>0.04505750175391274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02860178374696329</v>
+      </c>
+      <c r="D9">
+        <v>-0.06288877836004642</v>
+      </c>
+      <c r="E9">
+        <v>-0.02855687448365618</v>
+      </c>
+      <c r="F9">
+        <v>-0.03742590686470667</v>
+      </c>
+      <c r="G9">
+        <v>0.0115555611831085</v>
+      </c>
+      <c r="H9">
+        <v>-0.06000371880324321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02870775262321298</v>
+        <v>-0.03600992011069556</v>
       </c>
       <c r="C10">
-        <v>0.03406660355622877</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04291899240489574</v>
+      </c>
+      <c r="D10">
+        <v>0.17259757439486</v>
+      </c>
+      <c r="E10">
+        <v>-0.04619200136037746</v>
+      </c>
+      <c r="F10">
+        <v>-0.050182082201369</v>
+      </c>
+      <c r="G10">
+        <v>-0.03998971274095944</v>
+      </c>
+      <c r="H10">
+        <v>0.03449912046998937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0713099556013343</v>
+        <v>-0.07622394890164279</v>
       </c>
       <c r="C11">
-        <v>0.046508607748808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.025807855828261</v>
+      </c>
+      <c r="D11">
+        <v>-0.06210666704841274</v>
+      </c>
+      <c r="E11">
+        <v>0.01067599722905052</v>
+      </c>
+      <c r="F11">
+        <v>-0.02385750003271854</v>
+      </c>
+      <c r="G11">
+        <v>0.001174377260361977</v>
+      </c>
+      <c r="H11">
+        <v>-0.09702684970720843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05739016681089255</v>
+        <v>-0.06555224558836531</v>
       </c>
       <c r="C12">
-        <v>0.05017302744227909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03417077383371792</v>
+      </c>
+      <c r="D12">
+        <v>-0.04977292246037864</v>
+      </c>
+      <c r="E12">
+        <v>-0.008702380340541643</v>
+      </c>
+      <c r="F12">
+        <v>-0.01961765756200592</v>
+      </c>
+      <c r="G12">
+        <v>0.00325828967935889</v>
+      </c>
+      <c r="H12">
+        <v>-0.05865254241147798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06084701009755289</v>
+        <v>-0.06563111853288171</v>
       </c>
       <c r="C13">
-        <v>0.04163908073380494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02502861153039012</v>
+      </c>
+      <c r="D13">
+        <v>-0.04348677913778352</v>
+      </c>
+      <c r="E13">
+        <v>-0.00715707473317679</v>
+      </c>
+      <c r="F13">
+        <v>-0.005585285609820022</v>
+      </c>
+      <c r="G13">
+        <v>0.001729859581345492</v>
+      </c>
+      <c r="H13">
+        <v>-0.06266639224255685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03277885121216038</v>
+        <v>-0.04082959276784278</v>
       </c>
       <c r="C14">
-        <v>0.03076886750287109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02677909131093304</v>
+      </c>
+      <c r="D14">
+        <v>-0.004251783431736382</v>
+      </c>
+      <c r="E14">
+        <v>-0.02477556089790548</v>
+      </c>
+      <c r="F14">
+        <v>-0.01797238641378977</v>
+      </c>
+      <c r="G14">
+        <v>0.01763076330998704</v>
+      </c>
+      <c r="H14">
+        <v>-0.05607526896040051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03897062980937305</v>
+        <v>-0.03951247827536531</v>
       </c>
       <c r="C15">
-        <v>0.01137430684589283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003172720148588224</v>
+      </c>
+      <c r="D15">
+        <v>-0.005515148949954945</v>
+      </c>
+      <c r="E15">
+        <v>-0.04282163295553164</v>
+      </c>
+      <c r="F15">
+        <v>-0.0001892434774205285</v>
+      </c>
+      <c r="G15">
+        <v>0.02648107446533358</v>
+      </c>
+      <c r="H15">
+        <v>-0.04191121155054937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06079392534591772</v>
+        <v>-0.06953921819523254</v>
       </c>
       <c r="C16">
-        <v>0.04235020192611494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02659308754076903</v>
+      </c>
+      <c r="D16">
+        <v>-0.06256387031700474</v>
+      </c>
+      <c r="E16">
+        <v>-0.002121969478855614</v>
+      </c>
+      <c r="F16">
+        <v>-0.02387871782482747</v>
+      </c>
+      <c r="G16">
+        <v>-0.001282314292505708</v>
+      </c>
+      <c r="H16">
+        <v>-0.06146536202848801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06454974255611734</v>
+        <v>-0.06354183391971152</v>
       </c>
       <c r="C20">
-        <v>0.0325969371551991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01342552358838026</v>
+      </c>
+      <c r="D20">
+        <v>-0.04011826548140624</v>
+      </c>
+      <c r="E20">
+        <v>-0.02287774272569291</v>
+      </c>
+      <c r="F20">
+        <v>-0.02275271429504052</v>
+      </c>
+      <c r="G20">
+        <v>0.01325316997281944</v>
+      </c>
+      <c r="H20">
+        <v>-0.05720651865548304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0237806256396502</v>
+        <v>-0.0234049896511089</v>
       </c>
       <c r="C21">
-        <v>-0.005484575795473193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01294030729199648</v>
+      </c>
+      <c r="D21">
+        <v>-0.03899710252446956</v>
+      </c>
+      <c r="E21">
+        <v>-0.07133111059164055</v>
+      </c>
+      <c r="F21">
+        <v>0.01860392886385661</v>
+      </c>
+      <c r="G21">
+        <v>0.008524238311375667</v>
+      </c>
+      <c r="H21">
+        <v>0.04988095720598276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07337260909132347</v>
+        <v>-0.06797526105834302</v>
       </c>
       <c r="C22">
-        <v>0.06121541106686936</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03905252636259177</v>
+      </c>
+      <c r="D22">
+        <v>-0.0876093069863393</v>
+      </c>
+      <c r="E22">
+        <v>-0.6083854767117591</v>
+      </c>
+      <c r="F22">
+        <v>0.1422938868761562</v>
+      </c>
+      <c r="G22">
+        <v>-0.04939459219279319</v>
+      </c>
+      <c r="H22">
+        <v>0.1762656920405756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07434997720348692</v>
+        <v>-0.06857771365271254</v>
       </c>
       <c r="C23">
-        <v>0.06014443982557618</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03775974169280554</v>
+      </c>
+      <c r="D23">
+        <v>-0.08857686826924295</v>
+      </c>
+      <c r="E23">
+        <v>-0.6077914921978033</v>
+      </c>
+      <c r="F23">
+        <v>0.1414609976195345</v>
+      </c>
+      <c r="G23">
+        <v>-0.04756955471952431</v>
+      </c>
+      <c r="H23">
+        <v>0.1720393843600186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06970657653755995</v>
+        <v>-0.07910938578775495</v>
       </c>
       <c r="C24">
-        <v>0.0500036551602937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03210250360270773</v>
+      </c>
+      <c r="D24">
+        <v>-0.05989205635850678</v>
+      </c>
+      <c r="E24">
+        <v>-0.009863580492935618</v>
+      </c>
+      <c r="F24">
+        <v>-0.033150536605286</v>
+      </c>
+      <c r="G24">
+        <v>0.009782774449977874</v>
+      </c>
+      <c r="H24">
+        <v>-0.0696516784962854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07054028390751758</v>
+        <v>-0.07718454283854588</v>
       </c>
       <c r="C25">
-        <v>0.05601147140589367</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03652819075416539</v>
+      </c>
+      <c r="D25">
+        <v>-0.0534798355531677</v>
+      </c>
+      <c r="E25">
+        <v>-0.01117201664031916</v>
+      </c>
+      <c r="F25">
+        <v>-0.02779128491919328</v>
+      </c>
+      <c r="G25">
+        <v>0.02098298699506368</v>
+      </c>
+      <c r="H25">
+        <v>-0.07244047748763485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04584432347827148</v>
+        <v>-0.04764406866854771</v>
       </c>
       <c r="C26">
-        <v>0.01036444909548619</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.001195836260169226</v>
+      </c>
+      <c r="D26">
+        <v>-0.02041134979149537</v>
+      </c>
+      <c r="E26">
+        <v>-0.04314374040630712</v>
+      </c>
+      <c r="F26">
+        <v>-0.02410180500853463</v>
+      </c>
+      <c r="G26">
+        <v>-0.001221531143224305</v>
+      </c>
+      <c r="H26">
+        <v>-0.06227973368327943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0569220498134957</v>
+        <v>-0.06795486794525576</v>
       </c>
       <c r="C28">
-        <v>0.07402320351470522</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08447812702930828</v>
+      </c>
+      <c r="D28">
+        <v>0.3087230518778968</v>
+      </c>
+      <c r="E28">
+        <v>-0.02943455867355007</v>
+      </c>
+      <c r="F28">
+        <v>-0.05645336447482183</v>
+      </c>
+      <c r="G28">
+        <v>0.02270429210831972</v>
+      </c>
+      <c r="H28">
+        <v>0.04023571729845701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04114851055653353</v>
+        <v>-0.04837824653339811</v>
       </c>
       <c r="C29">
-        <v>0.03163885838583625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02473897623062215</v>
+      </c>
+      <c r="D29">
+        <v>-0.004944734135914871</v>
+      </c>
+      <c r="E29">
+        <v>-0.04912282726878345</v>
+      </c>
+      <c r="F29">
+        <v>-0.007184114542638152</v>
+      </c>
+      <c r="G29">
+        <v>0.0003356048395612398</v>
+      </c>
+      <c r="H29">
+        <v>-0.08052801368489616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1249774667774418</v>
+        <v>-0.1322834203725572</v>
       </c>
       <c r="C30">
-        <v>0.09419320085614977</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06306267141171404</v>
+      </c>
+      <c r="D30">
+        <v>-0.07332768551262885</v>
+      </c>
+      <c r="E30">
+        <v>-0.07480199106440766</v>
+      </c>
+      <c r="F30">
+        <v>0.0002954575278915349</v>
+      </c>
+      <c r="G30">
+        <v>0.0639045407042358</v>
+      </c>
+      <c r="H30">
+        <v>0.01337509770953966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04230557846091578</v>
+        <v>-0.04843205621585966</v>
       </c>
       <c r="C31">
-        <v>0.01962186323359847</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01093806631312582</v>
+      </c>
+      <c r="D31">
+        <v>-0.02492901644218277</v>
+      </c>
+      <c r="E31">
+        <v>-0.02556789993137403</v>
+      </c>
+      <c r="F31">
+        <v>-0.01544569124030779</v>
+      </c>
+      <c r="G31">
+        <v>-0.01742655141636884</v>
+      </c>
+      <c r="H31">
+        <v>-0.07164839243818896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03769398701975957</v>
+        <v>-0.03769090783217381</v>
       </c>
       <c r="C32">
-        <v>0.02200232016104872</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01519013049791653</v>
+      </c>
+      <c r="D32">
+        <v>-0.008940021467645555</v>
+      </c>
+      <c r="E32">
+        <v>-0.06848157609651405</v>
+      </c>
+      <c r="F32">
+        <v>0.001727664325330903</v>
+      </c>
+      <c r="G32">
+        <v>0.03987165725729563</v>
+      </c>
+      <c r="H32">
+        <v>-0.06775366936209348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08088550577166292</v>
+        <v>-0.0937647166011274</v>
       </c>
       <c r="C33">
-        <v>0.04336163121916304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.025483505299217</v>
+      </c>
+      <c r="D33">
+        <v>-0.05263271960433882</v>
+      </c>
+      <c r="E33">
+        <v>-0.01625789774306231</v>
+      </c>
+      <c r="F33">
+        <v>-0.001873184108754351</v>
+      </c>
+      <c r="G33">
+        <v>-0.007800046155289494</v>
+      </c>
+      <c r="H33">
+        <v>-0.07314309068867147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05543055426423515</v>
+        <v>-0.06083954678607983</v>
       </c>
       <c r="C34">
-        <v>0.02791812003105613</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01237320437884095</v>
+      </c>
+      <c r="D34">
+        <v>-0.0536133031317164</v>
+      </c>
+      <c r="E34">
+        <v>-0.004374375832909723</v>
+      </c>
+      <c r="F34">
+        <v>-0.01552785174885557</v>
+      </c>
+      <c r="G34">
+        <v>0.008340104726101331</v>
+      </c>
+      <c r="H34">
+        <v>-0.05994495063797035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03729647960330496</v>
+        <v>-0.04073164925701072</v>
       </c>
       <c r="C35">
-        <v>0.00882714460716761</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002025596011227313</v>
+      </c>
+      <c r="D35">
+        <v>-0.006472306853110477</v>
+      </c>
+      <c r="E35">
+        <v>-0.0225861713607174</v>
+      </c>
+      <c r="F35">
+        <v>0.009884642831157706</v>
+      </c>
+      <c r="G35">
+        <v>-0.007992366669927736</v>
+      </c>
+      <c r="H35">
+        <v>-0.03640556981822844</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02038810739197956</v>
+        <v>-0.02651686007485389</v>
       </c>
       <c r="C36">
-        <v>0.01700830742680203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01308176315719935</v>
+      </c>
+      <c r="D36">
+        <v>-0.01343768440680006</v>
+      </c>
+      <c r="E36">
+        <v>-0.0402999141839109</v>
+      </c>
+      <c r="F36">
+        <v>-0.01965272207700176</v>
+      </c>
+      <c r="G36">
+        <v>-0.005765367323836248</v>
+      </c>
+      <c r="H36">
+        <v>-0.05398403482536766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04051251217945801</v>
+        <v>-0.04373930309908286</v>
       </c>
       <c r="C38">
-        <v>0.00398697066220081</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002626478680690836</v>
+      </c>
+      <c r="D38">
+        <v>-0.0170887930956785</v>
+      </c>
+      <c r="E38">
+        <v>-0.05588144471615405</v>
+      </c>
+      <c r="F38">
+        <v>0.01023073061583563</v>
+      </c>
+      <c r="G38">
+        <v>0.0129871926364522</v>
+      </c>
+      <c r="H38">
+        <v>-0.02493098170490444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09417001815349062</v>
+        <v>-0.1047704442729596</v>
       </c>
       <c r="C39">
-        <v>0.07406403737535015</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04966145208243083</v>
+      </c>
+      <c r="D39">
+        <v>-0.06515640529141871</v>
+      </c>
+      <c r="E39">
+        <v>0.002431726307491095</v>
+      </c>
+      <c r="F39">
+        <v>-0.008638017605631499</v>
+      </c>
+      <c r="G39">
+        <v>0.03942883517037068</v>
+      </c>
+      <c r="H39">
+        <v>-0.07022523890991675</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0725604410977939</v>
+        <v>-0.07132153852939398</v>
       </c>
       <c r="C40">
-        <v>0.0403556569006357</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01976723795547682</v>
+      </c>
+      <c r="D40">
+        <v>-0.00643926669517582</v>
+      </c>
+      <c r="E40">
+        <v>-0.01647544991838937</v>
+      </c>
+      <c r="F40">
+        <v>0.04943961358938352</v>
+      </c>
+      <c r="G40">
+        <v>0.04411117325713598</v>
+      </c>
+      <c r="H40">
+        <v>0.05210654301119794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04023750066237093</v>
+        <v>-0.04392510000819452</v>
       </c>
       <c r="C41">
-        <v>0.006392656846319349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001496307833646961</v>
+      </c>
+      <c r="D41">
+        <v>-0.03522047744830456</v>
+      </c>
+      <c r="E41">
+        <v>-0.006918341314805974</v>
+      </c>
+      <c r="F41">
+        <v>0.01098470155553754</v>
+      </c>
+      <c r="G41">
+        <v>0.01444540138412992</v>
+      </c>
+      <c r="H41">
+        <v>-0.03469017161924626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04654363369152195</v>
+        <v>-0.05764220770355587</v>
       </c>
       <c r="C43">
-        <v>0.02555670556360102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01707246758870495</v>
+      </c>
+      <c r="D43">
+        <v>-0.02777438813562593</v>
+      </c>
+      <c r="E43">
+        <v>-0.01695338698521157</v>
+      </c>
+      <c r="F43">
+        <v>-0.01212753327279786</v>
+      </c>
+      <c r="G43">
+        <v>-0.0079112575730685</v>
+      </c>
+      <c r="H43">
+        <v>-0.05272328493086435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09471586804470535</v>
+        <v>-0.09334450524132899</v>
       </c>
       <c r="C44">
-        <v>0.09547612058264648</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06395918904781321</v>
+      </c>
+      <c r="D44">
+        <v>-0.06579479281114495</v>
+      </c>
+      <c r="E44">
+        <v>-0.08363165685305919</v>
+      </c>
+      <c r="F44">
+        <v>-0.05190580916447417</v>
+      </c>
+      <c r="G44">
+        <v>0.02493797200932173</v>
+      </c>
+      <c r="H44">
+        <v>-0.01968732818751927</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02473343381024372</v>
+        <v>-0.03164626683900615</v>
       </c>
       <c r="C46">
-        <v>0.01288060507359133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.008982417909967927</v>
+      </c>
+      <c r="D46">
+        <v>-0.03272572756091656</v>
+      </c>
+      <c r="E46">
+        <v>-0.02195573290252414</v>
+      </c>
+      <c r="F46">
+        <v>-0.01845507146135503</v>
+      </c>
+      <c r="G46">
+        <v>0.00821999334930063</v>
+      </c>
+      <c r="H46">
+        <v>-0.03773750598036062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02740424733853932</v>
+        <v>-0.03595556338181661</v>
       </c>
       <c r="C47">
-        <v>0.02492612239802281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.02019585720299743</v>
+      </c>
+      <c r="D47">
+        <v>-0.01695847119849566</v>
+      </c>
+      <c r="E47">
+        <v>-0.0476107233048903</v>
+      </c>
+      <c r="F47">
+        <v>-0.01733158864483096</v>
+      </c>
+      <c r="G47">
+        <v>-0.03995010788348481</v>
+      </c>
+      <c r="H47">
+        <v>-0.02751053914211838</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03117935691479015</v>
+        <v>-0.03599995646663807</v>
       </c>
       <c r="C48">
-        <v>0.01562912798597065</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.008635815311383679</v>
+      </c>
+      <c r="D48">
+        <v>-0.0199804210655221</v>
+      </c>
+      <c r="E48">
+        <v>-0.0417987315257481</v>
+      </c>
+      <c r="F48">
+        <v>-0.005924176321515483</v>
+      </c>
+      <c r="G48">
+        <v>0.01408268287113144</v>
+      </c>
+      <c r="H48">
+        <v>-0.05044857585042214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1622431265707003</v>
+        <v>-0.190800192271942</v>
       </c>
       <c r="C49">
-        <v>0.06413858017635782</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.0350520063159549</v>
+      </c>
+      <c r="D49">
+        <v>-0.02745297126228557</v>
+      </c>
+      <c r="E49">
+        <v>0.1448927330816208</v>
+      </c>
+      <c r="F49">
+        <v>-0.05592369986231142</v>
+      </c>
+      <c r="G49">
+        <v>-0.0725531433665997</v>
+      </c>
+      <c r="H49">
+        <v>0.2206065241323211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03726811686872955</v>
+        <v>-0.04412984667294118</v>
       </c>
       <c r="C50">
-        <v>0.02286237999479643</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01552608828675983</v>
+      </c>
+      <c r="D50">
+        <v>-0.03255174524375179</v>
+      </c>
+      <c r="E50">
+        <v>-0.05029200399294085</v>
+      </c>
+      <c r="F50">
+        <v>-0.01639149609124629</v>
+      </c>
+      <c r="G50">
+        <v>-0.01317324024886342</v>
+      </c>
+      <c r="H50">
+        <v>-0.06669183973896291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02609799411227044</v>
+        <v>-0.02887709189375524</v>
       </c>
       <c r="C51">
-        <v>0.01057822410508624</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.005950586484677839</v>
+      </c>
+      <c r="D51">
+        <v>-0.02202591322421225</v>
+      </c>
+      <c r="E51">
+        <v>-0.01392334819822333</v>
+      </c>
+      <c r="F51">
+        <v>-0.0131356278290286</v>
+      </c>
+      <c r="G51">
+        <v>0.002535209943502033</v>
+      </c>
+      <c r="H51">
+        <v>0.005639001125352712</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1515035544351686</v>
+        <v>-0.1630117773286107</v>
       </c>
       <c r="C53">
-        <v>0.08271202973024874</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05294106668453297</v>
+      </c>
+      <c r="D53">
+        <v>-0.0217447666261589</v>
+      </c>
+      <c r="E53">
+        <v>0.02694535260396647</v>
+      </c>
+      <c r="F53">
+        <v>-0.009769032586307186</v>
+      </c>
+      <c r="G53">
+        <v>0.004816219030157456</v>
+      </c>
+      <c r="H53">
+        <v>-0.1466398239145775</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05553562270264256</v>
+        <v>-0.05706842638346725</v>
       </c>
       <c r="C54">
-        <v>0.02428658518687688</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01153178327927596</v>
+      </c>
+      <c r="D54">
+        <v>-0.01892384369399088</v>
+      </c>
+      <c r="E54">
+        <v>-0.04770087364395418</v>
+      </c>
+      <c r="F54">
+        <v>-0.01031810722249987</v>
+      </c>
+      <c r="G54">
+        <v>0.01776116537756554</v>
+      </c>
+      <c r="H54">
+        <v>-0.06264510033012913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09924432693072775</v>
+        <v>-0.103306104810352</v>
       </c>
       <c r="C55">
-        <v>0.05720652656329785</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03589157155884766</v>
+      </c>
+      <c r="D55">
+        <v>-0.02551327503207516</v>
+      </c>
+      <c r="E55">
+        <v>-0.01177643588615527</v>
+      </c>
+      <c r="F55">
+        <v>-0.01513737159548944</v>
+      </c>
+      <c r="G55">
+        <v>0.01531594167917469</v>
+      </c>
+      <c r="H55">
+        <v>-0.1420129318192227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1469196161478292</v>
+        <v>-0.1602716207199081</v>
       </c>
       <c r="C56">
-        <v>0.09381722621125854</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06375848063019639</v>
+      </c>
+      <c r="D56">
+        <v>-0.02018794886256528</v>
+      </c>
+      <c r="E56">
+        <v>0.03389587641664589</v>
+      </c>
+      <c r="F56">
+        <v>-0.02631819878163419</v>
+      </c>
+      <c r="G56">
+        <v>-0.0003780521521176563</v>
+      </c>
+      <c r="H56">
+        <v>-0.1533514948562718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1204092310791766</v>
+        <v>-0.09737709898994681</v>
       </c>
       <c r="C58">
-        <v>0.004821152532485291</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03548566305207954</v>
+      </c>
+      <c r="D58">
+        <v>-0.04346088771790701</v>
+      </c>
+      <c r="E58">
+        <v>-0.1514426188039471</v>
+      </c>
+      <c r="F58">
+        <v>-0.01947011409628092</v>
+      </c>
+      <c r="G58">
+        <v>-0.06496656518593578</v>
+      </c>
+      <c r="H58">
+        <v>0.1452501302056743</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1165495536980263</v>
+        <v>-0.1394904116534154</v>
       </c>
       <c r="C59">
-        <v>0.07985148722453965</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08764196224871809</v>
+      </c>
+      <c r="D59">
+        <v>0.3607225356620077</v>
+      </c>
+      <c r="E59">
+        <v>-0.03156175806428325</v>
+      </c>
+      <c r="F59">
+        <v>-0.01752211198859907</v>
+      </c>
+      <c r="G59">
+        <v>-0.0487990004992529</v>
+      </c>
+      <c r="H59">
+        <v>0.006167907969710684</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2006213212801044</v>
+        <v>-0.2297909047520602</v>
       </c>
       <c r="C60">
-        <v>0.1037785418272331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.0666899387585331</v>
+      </c>
+      <c r="D60">
+        <v>-0.04010090890597568</v>
+      </c>
+      <c r="E60">
+        <v>0.08990067001441081</v>
+      </c>
+      <c r="F60">
+        <v>-0.05820838908195401</v>
+      </c>
+      <c r="G60">
+        <v>0.01119218542070071</v>
+      </c>
+      <c r="H60">
+        <v>0.174215212066203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07997221675135911</v>
+        <v>-0.0880059013778659</v>
       </c>
       <c r="C61">
-        <v>0.050725380243966</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03367468816087314</v>
+      </c>
+      <c r="D61">
+        <v>-0.0451394342314938</v>
+      </c>
+      <c r="E61">
+        <v>0.003329418612577852</v>
+      </c>
+      <c r="F61">
+        <v>-0.003997678490673818</v>
+      </c>
+      <c r="G61">
+        <v>0.00544139550760952</v>
+      </c>
+      <c r="H61">
+        <v>-0.07397036425832301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1287830901623452</v>
+        <v>-0.1402415081785532</v>
       </c>
       <c r="C62">
-        <v>0.07040080518882619</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04336293367041368</v>
+      </c>
+      <c r="D62">
+        <v>-0.0277726701206682</v>
+      </c>
+      <c r="E62">
+        <v>0.05821546363895332</v>
+      </c>
+      <c r="F62">
+        <v>-0.005392010215786077</v>
+      </c>
+      <c r="G62">
+        <v>0.03749411130141724</v>
+      </c>
+      <c r="H62">
+        <v>-0.1462164689026986</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05312942928227256</v>
+        <v>-0.05178805259950146</v>
       </c>
       <c r="C63">
-        <v>0.0262185981842478</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01320712966725397</v>
+      </c>
+      <c r="D63">
+        <v>-0.02241861761159736</v>
+      </c>
+      <c r="E63">
+        <v>-0.05264497289090912</v>
+      </c>
+      <c r="F63">
+        <v>0.002841765454654444</v>
+      </c>
+      <c r="G63">
+        <v>0.03710178590997106</v>
+      </c>
+      <c r="H63">
+        <v>-0.06919821025143257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1088383861580464</v>
+        <v>-0.1106523513444242</v>
       </c>
       <c r="C64">
-        <v>0.02891200266173844</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.00478787915513724</v>
+      </c>
+      <c r="D64">
+        <v>-0.04033771788343955</v>
+      </c>
+      <c r="E64">
+        <v>-0.02988271869543749</v>
+      </c>
+      <c r="F64">
+        <v>-0.04969768188817517</v>
+      </c>
+      <c r="G64">
+        <v>0.04998342955442347</v>
+      </c>
+      <c r="H64">
+        <v>-0.06774031621952331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1202058452979245</v>
+        <v>-0.1264729945663552</v>
       </c>
       <c r="C65">
-        <v>0.06081226402786182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03723580187377656</v>
+      </c>
+      <c r="D65">
+        <v>-0.003432963142685245</v>
+      </c>
+      <c r="E65">
+        <v>0.002289173867669868</v>
+      </c>
+      <c r="F65">
+        <v>-0.06713241920107574</v>
+      </c>
+      <c r="G65">
+        <v>0.0539107995714961</v>
+      </c>
+      <c r="H65">
+        <v>0.09072850368499777</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1449657560807426</v>
+        <v>-0.1560960422851708</v>
       </c>
       <c r="C66">
-        <v>0.07839513303559212</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.0445238007605786</v>
+      </c>
+      <c r="D66">
+        <v>-0.100847909348019</v>
+      </c>
+      <c r="E66">
+        <v>0.03493804741875534</v>
+      </c>
+      <c r="F66">
+        <v>-0.01287574638265479</v>
+      </c>
+      <c r="G66">
+        <v>0.05096462786345936</v>
+      </c>
+      <c r="H66">
+        <v>-0.1500057057282646</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07352515997781146</v>
+        <v>-0.08250787146826019</v>
       </c>
       <c r="C67">
-        <v>0.01613895111421839</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003986026843197791</v>
+      </c>
+      <c r="D67">
+        <v>-0.02944400659272468</v>
+      </c>
+      <c r="E67">
+        <v>-0.02362366494233543</v>
+      </c>
+      <c r="F67">
+        <v>-0.01221516200043135</v>
+      </c>
+      <c r="G67">
+        <v>-0.008748563685670551</v>
+      </c>
+      <c r="H67">
+        <v>-0.02441154866887885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05950949028357123</v>
+        <v>-0.06156257006548901</v>
       </c>
       <c r="C68">
-        <v>0.04996301340622007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05772289649446746</v>
+      </c>
+      <c r="D68">
+        <v>0.2659276510428087</v>
+      </c>
+      <c r="E68">
+        <v>-0.04230609485434146</v>
+      </c>
+      <c r="F68">
+        <v>-0.01985201527046839</v>
+      </c>
+      <c r="G68">
+        <v>-0.015917441596088</v>
+      </c>
+      <c r="H68">
+        <v>-0.01190314248510907</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05217107833624177</v>
+        <v>-0.05255453383481139</v>
       </c>
       <c r="C69">
-        <v>0.01977963112167392</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.005317824933462603</v>
+      </c>
+      <c r="D69">
+        <v>-0.01811170030154278</v>
+      </c>
+      <c r="E69">
+        <v>-0.02321047357426027</v>
+      </c>
+      <c r="F69">
+        <v>0.00271264491699912</v>
+      </c>
+      <c r="G69">
+        <v>-0.01204143992390713</v>
+      </c>
+      <c r="H69">
+        <v>-0.05302748100898599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005067039547446786</v>
+        <v>-0.02622877468275265</v>
       </c>
       <c r="C70">
-        <v>-0.004504952164388024</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0002183484261275031</v>
+      </c>
+      <c r="D70">
+        <v>-0.0003870287096491946</v>
+      </c>
+      <c r="E70">
+        <v>0.02795162973889238</v>
+      </c>
+      <c r="F70">
+        <v>-0.02645474606801906</v>
+      </c>
+      <c r="G70">
+        <v>-0.02429607079584012</v>
+      </c>
+      <c r="H70">
+        <v>0.05438996541243133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06095751265012</v>
+        <v>-0.06502879342306751</v>
       </c>
       <c r="C71">
-        <v>0.04985876985724758</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05974596127857221</v>
+      </c>
+      <c r="D71">
+        <v>0.2938206127129533</v>
+      </c>
+      <c r="E71">
+        <v>-0.03588580358290935</v>
+      </c>
+      <c r="F71">
+        <v>-0.05226403474179434</v>
+      </c>
+      <c r="G71">
+        <v>-0.002857396301979154</v>
+      </c>
+      <c r="H71">
+        <v>-0.01985284677437643</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1396394975122581</v>
+        <v>-0.151436060599133</v>
       </c>
       <c r="C72">
-        <v>0.06574967824720204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03781213670941553</v>
+      </c>
+      <c r="D72">
+        <v>0.01078368833714733</v>
+      </c>
+      <c r="E72">
+        <v>0.09678901531200633</v>
+      </c>
+      <c r="F72">
+        <v>0.1656186773120241</v>
+      </c>
+      <c r="G72">
+        <v>0.1171988168319665</v>
+      </c>
+      <c r="H72">
+        <v>-0.01132708819018508</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2643948240498563</v>
+        <v>-0.2843373362453743</v>
       </c>
       <c r="C73">
-        <v>0.1152798568625146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.05078560732468113</v>
+      </c>
+      <c r="D73">
+        <v>-0.1005143395203652</v>
+      </c>
+      <c r="E73">
+        <v>0.221183008115283</v>
+      </c>
+      <c r="F73">
+        <v>-0.09343194050880391</v>
+      </c>
+      <c r="G73">
+        <v>-0.2189303935170829</v>
+      </c>
+      <c r="H73">
+        <v>0.507667528106473</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07944965735139571</v>
+        <v>-0.09165403309456811</v>
       </c>
       <c r="C74">
-        <v>0.07929962644490361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.05924145066749405</v>
+      </c>
+      <c r="D74">
+        <v>-0.03081786958028739</v>
+      </c>
+      <c r="E74">
+        <v>0.006338839738523868</v>
+      </c>
+      <c r="F74">
+        <v>0.01448142116977129</v>
+      </c>
+      <c r="G74">
+        <v>-0.02883718318504642</v>
+      </c>
+      <c r="H74">
+        <v>-0.1222378429947629</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09505016203853842</v>
+        <v>-0.1014443233948201</v>
       </c>
       <c r="C75">
-        <v>0.05418699133289027</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02738491826502925</v>
+      </c>
+      <c r="D75">
+        <v>-0.01310827537041237</v>
+      </c>
+      <c r="E75">
+        <v>-0.0007312281534612492</v>
+      </c>
+      <c r="F75">
+        <v>-0.03730159846807501</v>
+      </c>
+      <c r="G75">
+        <v>-0.01041050370915832</v>
+      </c>
+      <c r="H75">
+        <v>-0.1120661741528725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1285099364995684</v>
+        <v>-0.138802313011261</v>
       </c>
       <c r="C76">
-        <v>0.08552257517157033</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05621977488201119</v>
+      </c>
+      <c r="D76">
+        <v>-0.05335638623956881</v>
+      </c>
+      <c r="E76">
+        <v>-0.02302505671340964</v>
+      </c>
+      <c r="F76">
+        <v>-0.04544266442924976</v>
+      </c>
+      <c r="G76">
+        <v>0.007620476882690097</v>
+      </c>
+      <c r="H76">
+        <v>-0.147082778265384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1195733588202123</v>
+        <v>-0.1134765918338704</v>
       </c>
       <c r="C77">
-        <v>0.025391603970895</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.00359325550242375</v>
+      </c>
+      <c r="D77">
+        <v>-0.01460033482931073</v>
+      </c>
+      <c r="E77">
+        <v>0.009716577854010609</v>
+      </c>
+      <c r="F77">
+        <v>-0.1662748812935229</v>
+      </c>
+      <c r="G77">
+        <v>0.8723135156128129</v>
+      </c>
+      <c r="H77">
+        <v>0.2454961628897759</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09479839488915631</v>
+        <v>-0.1313246822049612</v>
       </c>
       <c r="C78">
-        <v>0.0410625532304673</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03177184844227059</v>
+      </c>
+      <c r="D78">
+        <v>-0.09221439829598096</v>
+      </c>
+      <c r="E78">
+        <v>-0.05441786022446767</v>
+      </c>
+      <c r="F78">
+        <v>-0.0316163630829223</v>
+      </c>
+      <c r="G78">
+        <v>0.04215368857627221</v>
+      </c>
+      <c r="H78">
+        <v>0.07021400536740775</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1467376153949196</v>
+        <v>-0.1525385134196068</v>
       </c>
       <c r="C79">
-        <v>0.08357619980460838</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04634751185657477</v>
+      </c>
+      <c r="D79">
+        <v>-0.02884548702719955</v>
+      </c>
+      <c r="E79">
+        <v>0.01656410898083117</v>
+      </c>
+      <c r="F79">
+        <v>-0.009327717824613941</v>
+      </c>
+      <c r="G79">
+        <v>-0.01485727991957339</v>
+      </c>
+      <c r="H79">
+        <v>-0.1639248480781399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04227027549040632</v>
+        <v>-0.04126005225179784</v>
       </c>
       <c r="C80">
-        <v>0.01518611987905353</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.005442085208313143</v>
+      </c>
+      <c r="D80">
+        <v>-0.02191073090395015</v>
+      </c>
+      <c r="E80">
+        <v>0.009947105317928964</v>
+      </c>
+      <c r="F80">
+        <v>0.0162730702062354</v>
+      </c>
+      <c r="G80">
+        <v>-0.03472087582656537</v>
+      </c>
+      <c r="H80">
+        <v>-0.04224900594496308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1173772078687603</v>
+        <v>-0.1217530231138353</v>
       </c>
       <c r="C81">
-        <v>0.06649964442194008</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03676799912349149</v>
+      </c>
+      <c r="D81">
+        <v>-0.0257557700944774</v>
+      </c>
+      <c r="E81">
+        <v>-0.0162649447646094</v>
+      </c>
+      <c r="F81">
+        <v>-0.01969360025044749</v>
+      </c>
+      <c r="G81">
+        <v>-0.03186730881494607</v>
+      </c>
+      <c r="H81">
+        <v>-0.1755204547529236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1271153781084521</v>
+        <v>-0.1295083882919569</v>
       </c>
       <c r="C82">
-        <v>0.07969938758053068</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.04805991391265399</v>
+      </c>
+      <c r="D82">
+        <v>-0.03021880739357029</v>
+      </c>
+      <c r="E82">
+        <v>0.01365193688972594</v>
+      </c>
+      <c r="F82">
+        <v>-0.0518124046014059</v>
+      </c>
+      <c r="G82">
+        <v>-0.02885937335588516</v>
+      </c>
+      <c r="H82">
+        <v>-0.1775992140754704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07822945966180107</v>
+        <v>-0.08664205011775462</v>
       </c>
       <c r="C83">
-        <v>-0.001759462580846618</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.01926795030906231</v>
+      </c>
+      <c r="D83">
+        <v>-0.04259535016163709</v>
+      </c>
+      <c r="E83">
+        <v>-0.007472904064356482</v>
+      </c>
+      <c r="F83">
+        <v>-0.06834675987554389</v>
+      </c>
+      <c r="G83">
+        <v>-0.0984961593652756</v>
+      </c>
+      <c r="H83">
+        <v>0.05488771046186292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02930398072449732</v>
+        <v>-0.03974588845589423</v>
       </c>
       <c r="C84">
-        <v>0.02539156800928188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01990588137133589</v>
+      </c>
+      <c r="D84">
+        <v>-0.03095123454547256</v>
+      </c>
+      <c r="E84">
+        <v>-0.02853302683304838</v>
+      </c>
+      <c r="F84">
+        <v>0.04632760945909876</v>
+      </c>
+      <c r="G84">
+        <v>-0.05412392719739927</v>
+      </c>
+      <c r="H84">
+        <v>-0.0294380762412662</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1183741535239025</v>
+        <v>-0.1195396107373538</v>
       </c>
       <c r="C85">
-        <v>0.06165643485184517</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03045953045990767</v>
+      </c>
+      <c r="D85">
+        <v>-0.02973322002509426</v>
+      </c>
+      <c r="E85">
+        <v>-0.01613939779889406</v>
+      </c>
+      <c r="F85">
+        <v>-0.04058320495494942</v>
+      </c>
+      <c r="G85">
+        <v>-0.007289673744665755</v>
+      </c>
+      <c r="H85">
+        <v>-0.1432706882858992</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05062407476482211</v>
+        <v>-0.05701293412964056</v>
       </c>
       <c r="C86">
-        <v>0.03100791249879074</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01927191760329533</v>
+      </c>
+      <c r="D86">
+        <v>-0.02282117164341486</v>
+      </c>
+      <c r="E86">
+        <v>-0.04740827846288965</v>
+      </c>
+      <c r="F86">
+        <v>-0.03172209835448476</v>
+      </c>
+      <c r="G86">
+        <v>-0.005806782536385011</v>
+      </c>
+      <c r="H86">
+        <v>-0.01996695331305709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.120536259537089</v>
+        <v>-0.1221216945940614</v>
       </c>
       <c r="C87">
-        <v>0.07015278758637979</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03323215278544128</v>
+      </c>
+      <c r="D87">
+        <v>-0.0762641421037647</v>
+      </c>
+      <c r="E87">
+        <v>-0.01013535166548621</v>
+      </c>
+      <c r="F87">
+        <v>-0.006528891012228413</v>
+      </c>
+      <c r="G87">
+        <v>0.1051878363091529</v>
+      </c>
+      <c r="H87">
+        <v>0.02091120116195665</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05322852438253756</v>
+        <v>-0.05970537924167484</v>
       </c>
       <c r="C88">
-        <v>0.03155012212882199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01975353497835676</v>
+      </c>
+      <c r="D88">
+        <v>-0.02705850562173732</v>
+      </c>
+      <c r="E88">
+        <v>-0.01707334991628355</v>
+      </c>
+      <c r="F88">
+        <v>-0.006690878452589405</v>
+      </c>
+      <c r="G88">
+        <v>0.01525217706376118</v>
+      </c>
+      <c r="H88">
+        <v>-0.0617683115600605</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08350426399310014</v>
+        <v>-0.09725511778530108</v>
       </c>
       <c r="C89">
-        <v>0.06659861980973586</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07876788095366254</v>
+      </c>
+      <c r="D89">
+        <v>0.3358294813449771</v>
+      </c>
+      <c r="E89">
+        <v>-0.06963841052980582</v>
+      </c>
+      <c r="F89">
+        <v>-0.08575545836786901</v>
+      </c>
+      <c r="G89">
+        <v>-0.02275519007810076</v>
+      </c>
+      <c r="H89">
+        <v>-0.01250121841344311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07280586193594767</v>
+        <v>-0.08278486955514129</v>
       </c>
       <c r="C90">
-        <v>0.05900791233822932</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06871516977456062</v>
+      </c>
+      <c r="D90">
+        <v>0.3067947939604136</v>
+      </c>
+      <c r="E90">
+        <v>-0.06673770226209949</v>
+      </c>
+      <c r="F90">
+        <v>-0.01591576375238618</v>
+      </c>
+      <c r="G90">
+        <v>-0.004837981411595497</v>
+      </c>
+      <c r="H90">
+        <v>-0.019842778498586</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08416982324845912</v>
+        <v>-0.0891659687420171</v>
       </c>
       <c r="C91">
-        <v>0.05504472501868847</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03299815304604716</v>
+      </c>
+      <c r="D91">
+        <v>-0.03127273703527441</v>
+      </c>
+      <c r="E91">
+        <v>-0.009121531596401189</v>
+      </c>
+      <c r="F91">
+        <v>-0.005251850850180527</v>
+      </c>
+      <c r="G91">
+        <v>-0.04525963342353351</v>
+      </c>
+      <c r="H91">
+        <v>-0.07101711489550652</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07917805950429774</v>
+        <v>-0.08642238842887352</v>
       </c>
       <c r="C92">
-        <v>0.0763635348351052</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.08460393997809468</v>
+      </c>
+      <c r="D92">
+        <v>0.3425820731372726</v>
+      </c>
+      <c r="E92">
+        <v>-0.04860836809784234</v>
+      </c>
+      <c r="F92">
+        <v>-0.03995026736588957</v>
+      </c>
+      <c r="G92">
+        <v>0.002563605600860361</v>
+      </c>
+      <c r="H92">
+        <v>-0.0164133122344554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06541338264275016</v>
+        <v>-0.07982772467350427</v>
       </c>
       <c r="C93">
-        <v>0.06372392704104145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07830630384757331</v>
+      </c>
+      <c r="D93">
+        <v>0.3059389144848939</v>
+      </c>
+      <c r="E93">
+        <v>-0.03654506242703837</v>
+      </c>
+      <c r="F93">
+        <v>-0.05233470747409166</v>
+      </c>
+      <c r="G93">
+        <v>0.006648429063661535</v>
+      </c>
+      <c r="H93">
+        <v>0.007225942561231699</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1334846356982584</v>
+        <v>-0.128126364971733</v>
       </c>
       <c r="C94">
-        <v>0.0593149639393965</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.0210223234909501</v>
+      </c>
+      <c r="D94">
+        <v>-0.04782806486570464</v>
+      </c>
+      <c r="E94">
+        <v>0.0136032963070195</v>
+      </c>
+      <c r="F94">
+        <v>-0.0222623548946592</v>
+      </c>
+      <c r="G94">
+        <v>-0.03593144370880349</v>
+      </c>
+      <c r="H94">
+        <v>-0.114317877745297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1182766441910136</v>
+        <v>-0.1278340015352889</v>
       </c>
       <c r="C95">
-        <v>0.03950501029225446</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.009866640159313452</v>
+      </c>
+      <c r="D95">
+        <v>-0.05695346405300921</v>
+      </c>
+      <c r="E95">
+        <v>0.001421186652798379</v>
+      </c>
+      <c r="F95">
+        <v>-0.04088311007616289</v>
+      </c>
+      <c r="G95">
+        <v>-0.02108564152451665</v>
+      </c>
+      <c r="H95">
+        <v>0.02475358029251966</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2031784853677916</v>
+        <v>-0.2127776537819355</v>
       </c>
       <c r="C97">
-        <v>0.04945328130325757</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.0111737889944712</v>
+      </c>
+      <c r="D97">
+        <v>0.09034123305337949</v>
+      </c>
+      <c r="E97">
+        <v>0.1796799788249728</v>
+      </c>
+      <c r="F97">
+        <v>0.9005974413969196</v>
+      </c>
+      <c r="G97">
+        <v>0.1079614237974446</v>
+      </c>
+      <c r="H97">
+        <v>0.02403844005175503</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2449267493801777</v>
+        <v>-0.2720437370764728</v>
       </c>
       <c r="C98">
-        <v>0.08661960755594213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03691517741706699</v>
+      </c>
+      <c r="D98">
+        <v>-0.06456072527001294</v>
+      </c>
+      <c r="E98">
+        <v>0.1489668101010363</v>
+      </c>
+      <c r="F98">
+        <v>-0.05402570230968559</v>
+      </c>
+      <c r="G98">
+        <v>-0.2850591917635458</v>
+      </c>
+      <c r="H98">
+        <v>0.2394518484914688</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4639447299701581</v>
+        <v>-0.285191196543379</v>
       </c>
       <c r="C99">
-        <v>-0.8713497758894433</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9362892394095753</v>
+      </c>
+      <c r="D99">
+        <v>0.1284625428911146</v>
+      </c>
+      <c r="E99">
+        <v>-0.05954147330364257</v>
+      </c>
+      <c r="F99">
+        <v>-0.04553718052229696</v>
+      </c>
+      <c r="G99">
+        <v>-0.01339029477442449</v>
+      </c>
+      <c r="H99">
+        <v>-0.06081716423233296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04121458637145668</v>
+        <v>-0.04847400159504019</v>
       </c>
       <c r="C101">
-        <v>0.03161862454401267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02481085673504234</v>
+      </c>
+      <c r="D101">
+        <v>-0.005448867252873829</v>
+      </c>
+      <c r="E101">
+        <v>-0.04829611234662054</v>
+      </c>
+      <c r="F101">
+        <v>-0.006603899628370508</v>
+      </c>
+      <c r="G101">
+        <v>0.0001713020027817881</v>
+      </c>
+      <c r="H101">
+        <v>-0.07989369691911967</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
